--- a/biology/Zoologie/Cyphocharax/Cyphocharax.xlsx
+++ b/biology/Zoologie/Cyphocharax/Cyphocharax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyphocharax est un genre de poissons téléostéens de la famille des Curimatidae et de l'ordre des Characiformes. Il regroupe plusieurs espèces de poissons américains.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 février 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 février 2021) :
 Cyphocharax abramoides (Kner, 1858)
-Cyphocharax aninha Wosiacki &amp; Miranda, 2014[2]
+Cyphocharax aninha Wosiacki &amp; Miranda, 2014
 Cyphocharax aspilos Vari, 1992
-Cyphocharax biocellatus Vari, Sidlauskas &amp; Le Bail, 2012[3]
+Cyphocharax biocellatus Vari, Sidlauskas &amp; Le Bail, 2012
 Cyphocharax boiadeiro Melo, 2017
 Cyphocharax derhami Vari &amp; Chang, 2006
 Cyphocharax festivus Vari, 1992
@@ -540,7 +554,7 @@
 Cyphocharax plumbeus (Eigenmann &amp; Eigenmann, 1889)
 Cyphocharax punctatus (Vari &amp; Nijssen, 1986)
 Cyphocharax saladensis (Meinken, 1933)
-Cyphocharax sanctigabrielis Melo &amp; Vari, 2014[4]
+Cyphocharax sanctigabrielis Melo &amp; Vari, 2014
 Cyphocharax santacatarinae (Fernández-Yépez, 1948)
 Cyphocharax signatus Vari, 1992
 Cyphocharax spilotus (Vari, 1987)
